--- a/v0.7/StructureDefinition-PaymentReconciliation.xlsx
+++ b/v0.7/StructureDefinition-PaymentReconciliation.xlsx
@@ -1250,14 +1250,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
@@ -1285,7 +1285,7 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="54.171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>

--- a/v0.7/StructureDefinition-PaymentReconciliation.xlsx
+++ b/v0.7/StructureDefinition-PaymentReconciliation.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXPaymentReconciliation</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-PaymentReconciliation.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-PaymentReconciliation.xlsx
+++ b/v0.7/StructureDefinition-PaymentReconciliation.xlsx
@@ -536,7 +536,7 @@
     <t>PaymentReconciliation.paymentIssuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://nrces.in/ndhm/fhir/r4/StructureDefinition/Organization)
 </t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>PaymentReconciliation.requestor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(https://nrces.in/ndhm/fhir/r4/StructureDefinition/Practitioner|https://nrces.in/ndhm/fhir/r4/StructureDefinition/PractitionerRole|https://nrces.in/ndhm/fhir/r4/StructureDefinition/Organization)
 </t>
   </si>
   <si>
@@ -840,7 +840,7 @@
     <t>PaymentReconciliation.detail.responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole)
+    <t xml:space="preserve">Reference(https://nrces.in/ndhm/fhir/r4/StructureDefinition/PractitionerRole)
 </t>
   </si>
   <si>

--- a/v0.7/StructureDefinition-PaymentReconciliation.xlsx
+++ b/v0.7/StructureDefinition-PaymentReconciliation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
